--- a/src/main/java/az/et/_syllabus/course_details.xlsx
+++ b/src/main/java/az/et/_syllabus/course_details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>№</t>
   </si>
@@ -50,16 +50,22 @@
     <t>https://youtu.be/GMB3gMaLUPQ</t>
   </si>
   <si>
-    <t>01.11.2022</t>
-  </si>
-  <si>
     <t>29.10.2021</t>
   </si>
   <si>
-    <t>04.11.2023</t>
-  </si>
-  <si>
     <t>IoC &amp; DI</t>
+  </si>
+  <si>
+    <t>01.11.2021</t>
+  </si>
+  <si>
+    <t>04.11.2021</t>
+  </si>
+  <si>
+    <t>11.11.2021</t>
+  </si>
+  <si>
+    <t>Spring Web with Thymeleaf</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -556,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -567,15 +573,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/main/java/az/et/_syllabus/course_details.xlsx
+++ b/src/main/java/az/et/_syllabus/course_details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -65,14 +65,23 @@
     <t>11.11.2021</t>
   </si>
   <si>
-    <t>Spring Web with Thymeleaf</t>
+    <t>Spring Web - REST services intro</t>
+  </si>
+  <si>
+    <t>Intro to DB, Spring Data</t>
+  </si>
+  <si>
+    <t>16.11.2021</t>
+  </si>
+  <si>
+    <t>not uploaded yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,13 +112,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -136,11 +157,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -162,8 +184,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -514,7 +538,7 @@
   <dimension ref="A1:AMH10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +602,9 @@
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -589,10 +616,19 @@
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
